--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25097" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26221" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1739,6 +1739,12 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="715" x14ac:knownFonts="1">
+  <fonts count="747" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6267,8 +6273,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1192">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13019,8 +13227,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1411">
+  <borders count="1475">
     <border>
       <left/>
       <right/>
@@ -13057,6 +13571,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27409,7 +28575,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="741">
+  <cellXfs count="773">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29602,52 +30768,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="698" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1167" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1167" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="700" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="1170" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1170" fontId="701" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1173" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1173" fontId="702" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1176" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1176" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="704" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="1182" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="708" fillId="1173" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="709" fillId="1185" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="710" fillId="1185" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1182" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1173" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1185" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1185" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1188" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1194" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1197" fontId="717" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1200" fontId="718" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1203" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="720" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="721" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1209" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1200" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1212" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1212" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1221" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1224" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1227" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1230" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1236" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1227" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1239" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1239" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30961,7 +32223,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>557</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -30984,7 +32246,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -31004,7 +32266,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -31024,13 +32286,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>558</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -31044,7 +32306,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>538</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -31064,7 +32326,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>538</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -31084,7 +32346,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -31104,7 +32366,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -31124,7 +32386,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -31144,7 +32406,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -31164,7 +32426,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -31181,7 +32443,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -31198,7 +32460,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -31212,7 +32474,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -31223,7 +32485,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -31234,7 +32496,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -31245,7 +32507,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>509</v>
@@ -31256,7 +32518,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -31267,7 +32529,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>330</v>
@@ -31278,7 +32540,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -31289,7 +32551,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -31300,7 +32562,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -31310,6 +32572,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -20,15 +20,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26221" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26786" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1745,6 +1745,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1767,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="747" x14ac:knownFonts="1">
+  <fonts count="763" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6475,8 +6490,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13533,8 +13649,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1475">
+  <borders count="1507">
     <border>
       <left/>
       <right/>
@@ -13571,6 +13840,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -28575,7 +29170,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="773">
+  <cellXfs count="789">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30864,52 +31459,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="730" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1221" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1221" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1224" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1224" fontId="733" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1227" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1227" fontId="734" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1230" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1230" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="736" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="737" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="739" fillId="1236" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="740" fillId="1227" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="741" fillId="1239" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="742" fillId="1239" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="743" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="744" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="745" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1236" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1227" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1239" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1239" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1248" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1251" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1254" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1257" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1263" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1254" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1266" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1266" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31264,7 +31907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31580,7 +32223,7 @@
         <v>350</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>560</v>
       </c>
       <c r="M4" t="s">
         <v>335</v>
@@ -31616,7 +32259,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>561</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -31663,7 +32306,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -31730,11 +32373,14 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>559</v>
+      </c>
       <c r="K6" t="s">
         <v>348</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -31796,7 +32442,7 @@
         <v>535</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -31855,7 +32501,7 @@
         <v>328</v>
       </c>
       <c r="L8" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -31911,7 +32557,7 @@
         <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -31955,7 +32601,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -31996,7 +32642,7 @@
         <v>322</v>
       </c>
       <c r="L11" t="s">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
@@ -32034,7 +32680,7 @@
         <v>323</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="N12" t="s">
         <v>537</v>
@@ -32072,7 +32718,7 @@
         <v>324</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -32107,7 +32753,7 @@
         <v>325</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>472</v>
@@ -32139,7 +32785,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -32171,7 +32817,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="N16" t="s">
         <v>541</v>
@@ -32203,7 +32849,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -32223,13 +32869,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>557</v>
+        <v>414</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -32246,13 +32892,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -32266,13 +32912,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -32286,13 +32932,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>558</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -32306,13 +32952,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>538</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="Z22" t="s">
         <v>494</v>
@@ -32326,13 +32972,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>538</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -32346,13 +32992,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>542</v>
@@ -32366,13 +33012,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>524</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -32386,13 +33032,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -32406,13 +33052,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -32426,13 +33072,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -32443,13 +33089,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>327</v>
@@ -32460,10 +33106,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -32474,7 +33123,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -32485,7 +33134,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -32496,7 +33145,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -32507,7 +33156,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>509</v>
@@ -32518,7 +33167,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -32529,7 +33178,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>330</v>
@@ -32540,7 +33189,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -32551,7 +33200,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -32562,7 +33211,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -32572,9 +33221,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -33048,186 +33694,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>498</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>553</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26786" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27351" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1767,7 +1767,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="763" x14ac:knownFonts="1">
+  <fonts count="779" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6591,8 +6591,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13802,8 +13903,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1507">
+  <borders count="1539">
     <border>
       <left/>
       <right/>
@@ -13840,6 +14094,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -29170,7 +29750,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="789">
+  <cellXfs count="805">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31507,52 +32087,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="746" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="1248" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1248" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="1251" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1251" fontId="749" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1254" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1254" fontId="750" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1257" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1257" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="752" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="753" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="755" fillId="1263" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="756" fillId="1254" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="757" fillId="1266" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="758" fillId="1266" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="760" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="761" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1263" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1254" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1266" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1266" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1275" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1278" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1281" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1284" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1290" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1281" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1293" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1293" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27351" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28483" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1760,6 +1760,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1770,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="779" x14ac:knownFonts="1">
+  <fonts count="811" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6692,8 +6695,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1300">
+  <fills count="1354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14056,8 +14261,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1539">
+  <borders count="1603">
     <border>
       <left/>
       <right/>
@@ -14094,6 +14605,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -29750,7 +30913,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="805">
+  <cellXfs count="837">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32135,52 +33298,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="762" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="1275" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1275" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="764" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="1278" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1278" fontId="765" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1281" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1281" fontId="766" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1284" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1284" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="768" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="769" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="771" fillId="1290" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="772" fillId="1281" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="773" fillId="1293" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="774" fillId="1293" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1290" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1281" fontId="772" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1293" fontId="773" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1293" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1302" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1305" fontId="781" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1308" fontId="782" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1311" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="784" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="785" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1317" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1308" fontId="788" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1320" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1320" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1329" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1332" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1335" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1338" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1344" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="1335" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1347" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1347" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32535,7 +33794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34245,7 +35504,7 @@
         <v>270</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90">
@@ -34253,7 +35512,7 @@
         <v>287</v>
       </c>
       <c r="Z90" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -34261,7 +35520,7 @@
         <v>271</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
@@ -34269,7 +35528,7 @@
         <v>272</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -34277,7 +35536,7 @@
         <v>304</v>
       </c>
       <c r="Z93" t="s">
-        <v>547</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -34285,7 +35544,7 @@
         <v>310</v>
       </c>
       <c r="Z94" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95">
@@ -34293,7 +35552,7 @@
         <v>294</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96">
@@ -34301,7 +35560,7 @@
         <v>340</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -34309,7 +35568,7 @@
         <v>276</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -34317,201 +35576,206 @@
         <v>277</v>
       </c>
       <c r="Z98" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>498</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>523</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>544</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28483" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29049" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1770,7 +1770,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="811" x14ac:knownFonts="1">
+  <fonts count="827" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6897,8 +6897,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1354">
+  <fills count="1381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14567,8 +14668,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1603">
+  <borders count="1635">
     <border>
       <left/>
       <right/>
@@ -14605,6 +14859,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -30913,7 +31493,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="837">
+  <cellXfs count="853">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33394,52 +33974,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="794" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="795" fillId="1329" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1329" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="796" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="797" fillId="1332" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1332" fontId="797" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="798" fillId="1335" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1335" fontId="798" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1338" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1338" fontId="799" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="800" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="801" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="803" fillId="1344" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="804" fillId="1335" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="1347" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="806" fillId="1347" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="809" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1344" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1335" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1347" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1347" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1356" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1359" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1362" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1365" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1371" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="1362" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1374" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1374" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,9 +47,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29049" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29625" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1763,6 +1763,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="827" x14ac:knownFonts="1">
+  <fonts count="843" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6998,8 +7028,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1381">
+  <fills count="1408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14821,8 +14952,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1635">
+  <borders count="1667">
     <border>
       <left/>
       <right/>
@@ -14859,6 +15143,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -31493,7 +32103,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="853">
+  <cellXfs count="869">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34022,52 +34632,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="810" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="811" fillId="1356" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1356" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="812" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="813" fillId="1359" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1359" fontId="813" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="814" fillId="1362" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1362" fontId="814" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1365" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1365" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="816" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="817" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="819" fillId="1371" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="1362" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="821" fillId="1374" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="1374" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1371" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1362" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1374" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1374" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1383" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1386" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1389" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1392" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1398" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1389" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1401" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1401" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34422,7 +35080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34854,7 +35512,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -34925,7 +35583,7 @@
         <v>444</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -34987,7 +35645,7 @@
         <v>445</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -35043,7 +35701,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -35095,6 +35753,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -35113,7 +35774,7 @@
         <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -35135,6 +35796,9 @@
       </c>
       <c r="Z10" t="s">
         <v>256</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>574</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -35154,7 +35818,7 @@
         <v>352</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -35192,7 +35856,7 @@
         <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L12" t="s">
         <v>486</v>
@@ -35230,7 +35894,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13" t="s">
         <v>389</v>
@@ -35242,7 +35906,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>253</v>
+        <v>566</v>
       </c>
       <c r="Z13" t="s">
         <v>326</v>
@@ -35265,7 +35929,7 @@
         <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -35277,7 +35941,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -35299,6 +35963,9 @@
       <c r="H15" t="s">
         <v>263</v>
       </c>
+      <c r="I15" t="s">
+        <v>325</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -35309,10 +35976,10 @@
         <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>567</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -35341,10 +36008,10 @@
         <v>492</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -35369,8 +36036,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>251</v>
+      </c>
       <c r="Z17" t="s">
-        <v>493</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>466</v>
@@ -35396,7 +36066,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>493</v>
       </c>
       <c r="AE18" t="s">
         <v>475</v>
@@ -35416,7 +36086,7 @@
         <v>462</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>504</v>
@@ -35436,7 +36106,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>505</v>
@@ -35456,7 +36126,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>506</v>
@@ -35476,7 +36146,7 @@
         <v>558</v>
       </c>
       <c r="Z22" t="s">
-        <v>494</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>234</v>
@@ -35496,7 +36166,7 @@
         <v>470</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>494</v>
       </c>
       <c r="AE23" t="s">
         <v>532</v>
@@ -35516,7 +36186,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>533</v>
@@ -35536,7 +36206,7 @@
         <v>391</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>542</v>
       </c>
       <c r="AE25" t="s">
         <v>534</v>
@@ -35556,7 +36226,7 @@
         <v>524</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>235</v>
@@ -35576,7 +36246,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>236</v>
@@ -35596,7 +36266,7 @@
         <v>433</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -35613,7 +36283,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>327</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -35630,7 +36300,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31">
@@ -35644,7 +36314,7 @@
         <v>215</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -35655,7 +36325,7 @@
         <v>274</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -35666,7 +36336,7 @@
         <v>284</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -35677,7 +36347,7 @@
         <v>509</v>
       </c>
       <c r="Z34" t="s">
-        <v>543</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -35688,7 +36358,7 @@
         <v>259</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36">
@@ -35699,7 +36369,7 @@
         <v>330</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -35710,7 +36380,7 @@
         <v>306</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -35721,7 +36391,7 @@
         <v>260</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -35732,7 +36402,7 @@
         <v>307</v>
       </c>
       <c r="Z39" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -35740,7 +36410,7 @@
         <v>266</v>
       </c>
       <c r="Z40" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41">
@@ -35748,7 +36418,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42">
@@ -35756,7 +36426,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43">
@@ -35764,7 +36434,7 @@
         <v>539</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
@@ -35772,7 +36442,7 @@
         <v>288</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -35780,7 +36450,7 @@
         <v>299</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -35788,7 +36458,7 @@
         <v>300</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -35796,7 +36466,7 @@
         <v>343</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -35804,7 +36474,7 @@
         <v>342</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -35812,7 +36482,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -35820,7 +36490,7 @@
         <v>320</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51">
@@ -35828,7 +36498,7 @@
         <v>339</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -35836,7 +36506,7 @@
         <v>367</v>
       </c>
       <c r="Z52" t="s">
-        <v>536</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -35844,7 +36514,7 @@
         <v>301</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54">
@@ -35852,7 +36522,7 @@
         <v>355</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -35860,7 +36530,7 @@
         <v>331</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -35868,7 +36538,7 @@
         <v>267</v>
       </c>
       <c r="Z56" t="s">
-        <v>495</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -35876,7 +36546,7 @@
         <v>291</v>
       </c>
       <c r="Z57" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
@@ -35884,7 +36554,7 @@
         <v>292</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59">
@@ -35892,7 +36562,7 @@
         <v>540</v>
       </c>
       <c r="Z59" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -35900,7 +36570,7 @@
         <v>293</v>
       </c>
       <c r="Z60" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61">
@@ -35908,7 +36578,7 @@
         <v>302</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62">
@@ -35916,7 +36586,7 @@
         <v>311</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -35924,7 +36594,7 @@
         <v>337</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -35932,7 +36602,7 @@
         <v>308</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -35940,7 +36610,7 @@
         <v>309</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -35948,7 +36618,7 @@
         <v>368</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -35956,7 +36626,7 @@
         <v>369</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -35964,7 +36634,7 @@
         <v>345</v>
       </c>
       <c r="Z68" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -35972,7 +36642,7 @@
         <v>312</v>
       </c>
       <c r="Z69" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70">
@@ -35980,7 +36650,7 @@
         <v>268</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71">
@@ -35988,7 +36658,7 @@
         <v>525</v>
       </c>
       <c r="Z71" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -35996,7 +36666,7 @@
         <v>313</v>
       </c>
       <c r="Z72" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73">
@@ -36004,7 +36674,7 @@
         <v>409</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74">
@@ -36012,7 +36682,7 @@
         <v>303</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -36020,7 +36690,7 @@
         <v>410</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -36028,7 +36698,7 @@
         <v>261</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -36036,7 +36706,7 @@
         <v>510</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -36044,7 +36714,7 @@
         <v>344</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -36052,7 +36722,7 @@
         <v>279</v>
       </c>
       <c r="Z79" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -36060,7 +36730,7 @@
         <v>285</v>
       </c>
       <c r="Z80" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81">
@@ -36068,7 +36738,7 @@
         <v>290</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82">
@@ -36076,7 +36746,7 @@
         <v>428</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -36084,7 +36754,7 @@
         <v>332</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -36092,7 +36762,7 @@
         <v>269</v>
       </c>
       <c r="Z84" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -36100,7 +36770,7 @@
         <v>280</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86">
@@ -36108,7 +36778,7 @@
         <v>286</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -36116,7 +36786,7 @@
         <v>275</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -36124,7 +36794,7 @@
         <v>528</v>
       </c>
       <c r="Z88" t="s">
-        <v>497</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -36132,7 +36802,7 @@
         <v>270</v>
       </c>
       <c r="Z89" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90">
@@ -36140,7 +36810,7 @@
         <v>287</v>
       </c>
       <c r="Z90" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91">
@@ -36148,7 +36818,7 @@
         <v>271</v>
       </c>
       <c r="Z91" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -36156,7 +36826,7 @@
         <v>272</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93">
@@ -36164,7 +36834,7 @@
         <v>304</v>
       </c>
       <c r="Z93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -36172,7 +36842,7 @@
         <v>310</v>
       </c>
       <c r="Z94" t="s">
-        <v>547</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -36180,7 +36850,7 @@
         <v>294</v>
       </c>
       <c r="Z95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96">
@@ -36188,7 +36858,7 @@
         <v>340</v>
       </c>
       <c r="Z96" t="s">
-        <v>213</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97">
@@ -36196,7 +36866,7 @@
         <v>276</v>
       </c>
       <c r="Z97" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -36204,206 +36874,236 @@
         <v>277</v>
       </c>
       <c r="Z98" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>553</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>523</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>544</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29625" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30202" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1793,6 +1793,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="843" x14ac:knownFonts="1">
+  <fonts count="859" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7129,8 +7135,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1408">
+  <fills count="1435">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15105,8 +15212,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1667">
+  <borders count="1699">
     <border>
       <left/>
       <right/>
@@ -15143,6 +15403,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -32103,7 +32689,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="869">
+  <cellXfs count="885">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34680,52 +35266,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="826" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="827" fillId="1383" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1383" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="828" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="829" fillId="1386" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1386" fontId="829" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="1389" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1389" fontId="830" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1392" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1392" fontId="831" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="832" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="833" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="1398" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="836" fillId="1389" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="1401" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="1401" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="841" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1398" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1389" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1401" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1401" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1410" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1413" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1416" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1419" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="1425" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1416" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1428" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1428" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35774,7 +36408,7 @@
         <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -35818,7 +36452,7 @@
         <v>352</v>
       </c>
       <c r="I11" t="s">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -35856,7 +36490,7 @@
         <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L12" t="s">
         <v>486</v>
@@ -35894,7 +36528,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L13" t="s">
         <v>389</v>
@@ -35929,7 +36563,7 @@
         <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -35964,7 +36598,7 @@
         <v>263</v>
       </c>
       <c r="I15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -35997,6 +36631,9 @@
       </c>
       <c r="H16" t="s">
         <v>264</v>
+      </c>
+      <c r="I16" t="s">
+        <v>325</v>
       </c>
       <c r="L16" t="s">
         <v>487</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -45,15 +45,16 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30202" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31372" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1799,6 +1800,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1834,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="859" x14ac:knownFonts="1">
+  <fonts count="891" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7236,8 +7264,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1435">
+  <fills count="1489">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15365,8 +15595,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1699">
+  <borders count="1763">
     <border>
       <left/>
       <right/>
@@ -15403,6 +15939,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -32689,7 +33877,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="885">
+  <cellXfs count="917">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35314,52 +36502,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="842" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="1410" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1410" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="844" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="845" fillId="1413" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1413" fontId="845" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="1416" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1416" fontId="846" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="847" fillId="1419" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1419" fontId="847" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="848" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="849" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="849" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="1425" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="1416" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="1428" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="854" fillId="1428" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="855" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="857" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1425" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1416" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1428" fontId="853" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1428" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1437" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1440" fontId="861" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1714" fillId="1443" fontId="862" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1446" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="864" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="865" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1452" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1443" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1730" fillId="1455" fontId="869" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1730" fillId="1455" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1458" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1464" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1467" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="1470" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1473" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="1479" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1470" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="1482" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1482" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35714,7 +36998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35802,21 +37086,24 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>413</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -35852,7 +37139,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="L2" t="s">
         <v>314</v>
@@ -35897,21 +37184,24 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -35983,21 +37273,24 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>363</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -36066,21 +37359,24 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA4" t="s">
         <v>561</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>423</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -36140,21 +37436,24 @@
         <v>358</v>
       </c>
       <c r="Z5" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA5" t="s">
         <v>555</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>573</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>424</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -36184,7 +37483,7 @@
         <v>559</v>
       </c>
       <c r="K6" t="s">
-        <v>348</v>
+        <v>585</v>
       </c>
       <c r="L6" t="s">
         <v>461</v>
@@ -36211,21 +37510,24 @@
         <v>360</v>
       </c>
       <c r="Z6" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>444</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>425</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -36246,7 +37548,7 @@
         <v>446</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -36272,22 +37574,22 @@
       <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>445</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>426</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -36307,6 +37609,9 @@
       <c r="I8" t="s">
         <v>328</v>
       </c>
+      <c r="K8" t="s">
+        <v>535</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -36328,22 +37633,22 @@
       <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>427</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -36384,16 +37689,16 @@
       <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -36428,16 +37733,16 @@
       <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>574</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -36469,13 +37774,13 @@
       <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -36507,13 +37812,13 @@
       <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36542,13 +37847,13 @@
       <c r="S13" t="s">
         <v>566</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>326</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>474</v>
       </c>
     </row>
@@ -36577,13 +37882,13 @@
       <c r="S14" t="s">
         <v>253</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -36612,13 +37917,13 @@
       <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>567</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -36647,13 +37952,13 @@
       <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -36676,13 +37981,13 @@
       <c r="S17" t="s">
         <v>251</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -36702,10 +38007,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>493</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -36722,10 +38027,10 @@
       <c r="L19" t="s">
         <v>462</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -36742,10 +38047,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -36762,10 +38067,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -36782,10 +38087,10 @@
       <c r="L22" t="s">
         <v>558</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -36802,10 +38107,10 @@
       <c r="L23" t="s">
         <v>470</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>494</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -36822,10 +38127,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>533</v>
       </c>
     </row>
@@ -36842,16 +38147,16 @@
       <c r="L25" t="s">
         <v>391</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>542</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>577</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -36862,16 +38167,16 @@
       <c r="L26" t="s">
         <v>524</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>224</v>
@@ -36882,16 +38187,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>225</v>
@@ -36902,13 +38207,13 @@
       <c r="L28" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>468</v>
@@ -36919,13 +38224,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>469</v>
@@ -36936,13 +38241,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
         <v>415</v>
@@ -36950,18 +38255,21 @@
       <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -36972,7 +38280,7 @@
       <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -36983,7 +38291,7 @@
       <c r="H34" t="s">
         <v>509</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -36994,7 +38302,7 @@
       <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>543</v>
       </c>
     </row>
@@ -37005,7 +38313,7 @@
       <c r="H36" t="s">
         <v>330</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -37016,7 +38324,7 @@
       <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -37027,7 +38335,7 @@
       <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -37038,7 +38346,7 @@
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -37046,7 +38354,7 @@
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>338</v>
       </c>
     </row>
@@ -37054,7 +38362,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>437</v>
       </c>
     </row>
@@ -37062,7 +38370,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>556</v>
       </c>
     </row>
@@ -37070,7 +38378,7 @@
       <c r="H43" t="s">
         <v>539</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>392</v>
       </c>
     </row>
@@ -37078,7 +38386,7 @@
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -37086,7 +38394,7 @@
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -37094,7 +38402,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -37102,7 +38410,7 @@
       <c r="H47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -37110,7 +38418,7 @@
       <c r="H48" t="s">
         <v>342</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -37118,7 +38426,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -37126,7 +38434,7 @@
       <c r="H50" t="s">
         <v>320</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>438</v>
       </c>
     </row>
@@ -37134,7 +38442,7 @@
       <c r="H51" t="s">
         <v>339</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -37142,7 +38450,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -37150,7 +38458,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>536</v>
       </c>
     </row>
@@ -37158,7 +38466,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -37166,7 +38474,7 @@
       <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -37174,7 +38482,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -37182,7 +38490,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>495</v>
       </c>
     </row>
@@ -37190,7 +38498,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>463</v>
       </c>
     </row>
@@ -37198,7 +38506,7 @@
       <c r="H59" t="s">
         <v>540</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -37206,7 +38514,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>346</v>
       </c>
     </row>
@@ -37214,7 +38522,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -37222,7 +38530,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -37230,7 +38538,7 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -37238,7 +38546,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -37246,7 +38554,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -37254,7 +38562,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -37262,7 +38570,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -37270,7 +38578,7 @@
       <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -37278,7 +38586,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>439</v>
       </c>
     </row>
@@ -37286,7 +38594,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>473</v>
       </c>
     </row>
@@ -37294,7 +38602,7 @@
       <c r="H71" t="s">
         <v>525</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -37302,7 +38610,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>388</v>
       </c>
     </row>
@@ -37310,7 +38618,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>440</v>
       </c>
     </row>
@@ -37318,7 +38626,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -37326,7 +38634,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -37334,7 +38642,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37342,7 +38650,7 @@
       <c r="H77" t="s">
         <v>510</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -37350,7 +38658,7 @@
       <c r="H78" t="s">
         <v>344</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -37358,7 +38666,7 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -37366,7 +38674,7 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>452</v>
       </c>
     </row>
@@ -37374,7 +38682,7 @@
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>465</v>
       </c>
     </row>
@@ -37382,7 +38690,7 @@
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -37390,7 +38698,7 @@
       <c r="H83" t="s">
         <v>332</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -37398,7 +38706,7 @@
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -37406,7 +38714,7 @@
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>496</v>
       </c>
     </row>
@@ -37414,7 +38722,7 @@
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -37422,7 +38730,7 @@
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -37430,7 +38738,7 @@
       <c r="H88" t="s">
         <v>528</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -37438,7 +38746,7 @@
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>497</v>
       </c>
     </row>
@@ -37446,7 +38754,7 @@
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>564</v>
       </c>
     </row>
@@ -37454,7 +38762,7 @@
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -37462,7 +38770,7 @@
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>453</v>
       </c>
     </row>
@@ -37470,7 +38778,7 @@
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -37478,7 +38786,7 @@
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -37486,7 +38794,7 @@
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>547</v>
       </c>
     </row>
@@ -37494,7 +38802,7 @@
       <c r="H96" t="s">
         <v>340</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>548</v>
       </c>
     </row>
@@ -37502,7 +38810,7 @@
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -37510,237 +38818,237 @@
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -31,7 +31,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,7 +39,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -55,6 +55,7 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31372" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31959" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1827,6 +1828,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1865,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="891" x14ac:knownFonts="1">
+  <fonts count="907" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7466,8 +7497,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1489">
+  <fills count="1516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15901,8 +16033,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1763">
+  <borders count="1795">
     <border>
       <left/>
       <right/>
@@ -15939,6 +16224,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -33877,7 +34488,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="917">
+  <cellXfs count="933">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36598,52 +37209,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="874" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="875" fillId="1464" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1464" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="876" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="877" fillId="1467" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1467" fontId="877" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="878" fillId="1470" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1746" fillId="1470" fontId="878" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="879" fillId="1473" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1473" fontId="879" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="880" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="881" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="881" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="1479" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="884" fillId="1470" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="885" fillId="1482" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="886" fillId="1482" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="887" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="888" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="889" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="890" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1479" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1470" fontId="884" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1482" fontId="885" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1482" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="1491" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="1494" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="1497" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="1500" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1503" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1506" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1497" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1509" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1509" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36998,7 +37657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37086,7 +37745,7 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -37166,7 +37825,7 @@
         <v>252</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>588</v>
       </c>
       <c r="U2" t="s">
         <v>397</v>
@@ -37184,7 +37843,7 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -37258,7 +37917,7 @@
         <v>239</v>
       </c>
       <c r="T3" t="s">
-        <v>217</v>
+        <v>589</v>
       </c>
       <c r="U3" t="s">
         <v>398</v>
@@ -37273,7 +37932,7 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -37344,7 +38003,7 @@
         <v>240</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U4" t="s">
         <v>399</v>
@@ -37359,7 +38018,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="AA4" t="s">
         <v>561</v>
@@ -37424,7 +38083,7 @@
         <v>241</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U5" t="s">
         <v>400</v>
@@ -37434,9 +38093,6 @@
       </c>
       <c r="X5" t="s">
         <v>358</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>582</v>
       </c>
       <c r="AA5" t="s">
         <v>555</v>
@@ -37501,16 +38157,13 @@
         <v>242</v>
       </c>
       <c r="T6" t="s">
-        <v>390</v>
+        <v>218</v>
       </c>
       <c r="U6" t="s">
         <v>401</v>
       </c>
       <c r="X6" t="s">
         <v>360</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>583</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -37566,7 +38219,7 @@
         <v>243</v>
       </c>
       <c r="T7" t="s">
-        <v>417</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
         <v>402</v>
@@ -37627,6 +38280,9 @@
       <c r="S8" t="s">
         <v>244</v>
       </c>
+      <c r="T8" t="s">
+        <v>390</v>
+      </c>
       <c r="U8" t="s">
         <v>403</v>
       </c>
@@ -37683,6 +38339,9 @@
       <c r="S9" t="s">
         <v>245</v>
       </c>
+      <c r="T9" t="s">
+        <v>417</v>
+      </c>
       <c r="U9" t="s">
         <v>404</v>
       </c>
@@ -37804,7 +38463,7 @@
         <v>537</v>
       </c>
       <c r="O12" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -37841,6 +38500,9 @@
       <c r="N13" t="s">
         <v>435</v>
       </c>
+      <c r="O13" t="s">
+        <v>521</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -37918,7 +38580,7 @@
         <v>249</v>
       </c>
       <c r="AA15" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -37953,7 +38615,7 @@
         <v>250</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>567</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -37982,7 +38644,7 @@
         <v>251</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>466</v>
@@ -38008,7 +38670,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>493</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>475</v>
@@ -38028,7 +38690,7 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>493</v>
       </c>
       <c r="AF19" t="s">
         <v>504</v>
@@ -38048,7 +38710,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>505</v>
@@ -38068,7 +38730,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>506</v>
@@ -38088,7 +38750,7 @@
         <v>558</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>234</v>
@@ -38108,7 +38770,7 @@
         <v>470</v>
       </c>
       <c r="AA23" t="s">
-        <v>494</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>532</v>
@@ -38128,7 +38790,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>494</v>
       </c>
       <c r="AF24" t="s">
         <v>533</v>
@@ -38148,7 +38810,7 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>534</v>
@@ -38156,7 +38818,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -38168,7 +38830,7 @@
         <v>524</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>542</v>
       </c>
       <c r="AF26" t="s">
         <v>235</v>
@@ -38188,7 +38850,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>236</v>
@@ -38208,7 +38870,7 @@
         <v>433</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -38225,7 +38887,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -38242,7 +38904,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>327</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -38256,7 +38918,7 @@
         <v>215</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
@@ -38270,7 +38932,7 @@
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -38281,7 +38943,7 @@
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -38292,7 +38954,7 @@
         <v>509</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -38303,7 +38965,7 @@
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>543</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -38314,7 +38976,7 @@
         <v>330</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37">
@@ -38325,7 +38987,7 @@
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -38336,7 +38998,7 @@
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -38347,7 +39009,7 @@
         <v>307</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -38355,7 +39017,7 @@
         <v>266</v>
       </c>
       <c r="AA40" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -38363,7 +39025,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42">
@@ -38371,7 +39033,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43">
@@ -38379,7 +39041,7 @@
         <v>539</v>
       </c>
       <c r="AA43" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44">
@@ -38387,7 +39049,7 @@
         <v>288</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -38395,7 +39057,7 @@
         <v>299</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -38403,7 +39065,7 @@
         <v>300</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -38411,7 +39073,7 @@
         <v>343</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -38419,7 +39081,7 @@
         <v>342</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -38427,7 +39089,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -38435,7 +39097,7 @@
         <v>320</v>
       </c>
       <c r="AA50" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -38443,7 +39105,7 @@
         <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52">
@@ -38451,7 +39113,7 @@
         <v>367</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -38459,7 +39121,7 @@
         <v>301</v>
       </c>
       <c r="AA53" t="s">
-        <v>536</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -38467,7 +39129,7 @@
         <v>355</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55">
@@ -38475,7 +39137,7 @@
         <v>331</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -38483,7 +39145,7 @@
         <v>267</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -38491,7 +39153,7 @@
         <v>291</v>
       </c>
       <c r="AA57" t="s">
-        <v>495</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -38499,7 +39161,7 @@
         <v>292</v>
       </c>
       <c r="AA58" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59">
@@ -38507,7 +39169,7 @@
         <v>540</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
@@ -38515,7 +39177,7 @@
         <v>293</v>
       </c>
       <c r="AA60" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -38523,7 +39185,7 @@
         <v>302</v>
       </c>
       <c r="AA61" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62">
@@ -38531,7 +39193,7 @@
         <v>311</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63">
@@ -38539,7 +39201,7 @@
         <v>337</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -38547,7 +39209,7 @@
         <v>308</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -38555,7 +39217,7 @@
         <v>309</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -38563,7 +39225,7 @@
         <v>368</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -38571,7 +39233,7 @@
         <v>369</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -38579,7 +39241,7 @@
         <v>345</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -38587,7 +39249,7 @@
         <v>312</v>
       </c>
       <c r="AA69" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -38595,7 +39257,7 @@
         <v>268</v>
       </c>
       <c r="AA70" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -38603,7 +39265,7 @@
         <v>525</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72">
@@ -38611,7 +39273,7 @@
         <v>313</v>
       </c>
       <c r="AA72" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -38619,7 +39281,7 @@
         <v>409</v>
       </c>
       <c r="AA73" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
@@ -38627,7 +39289,7 @@
         <v>303</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75">
@@ -38635,7 +39297,7 @@
         <v>410</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -38643,7 +39305,7 @@
         <v>261</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -38651,7 +39313,7 @@
         <v>510</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -38659,7 +39321,7 @@
         <v>344</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -38667,7 +39329,7 @@
         <v>279</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -38675,7 +39337,7 @@
         <v>285</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -38683,7 +39345,7 @@
         <v>290</v>
       </c>
       <c r="AA81" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -38691,7 +39353,7 @@
         <v>428</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83">
@@ -38699,7 +39361,7 @@
         <v>332</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -38707,7 +39369,7 @@
         <v>269</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -38715,7 +39377,7 @@
         <v>280</v>
       </c>
       <c r="AA85" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -38723,7 +39385,7 @@
         <v>286</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87">
@@ -38731,7 +39393,7 @@
         <v>275</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -38739,7 +39401,7 @@
         <v>528</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -38747,7 +39409,7 @@
         <v>270</v>
       </c>
       <c r="AA89" t="s">
-        <v>497</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -38755,7 +39417,7 @@
         <v>287</v>
       </c>
       <c r="AA90" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91">
@@ -38763,7 +39425,7 @@
         <v>271</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92">
@@ -38771,7 +39433,7 @@
         <v>272</v>
       </c>
       <c r="AA92" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -38779,7 +39441,7 @@
         <v>304</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94">
@@ -38787,7 +39449,7 @@
         <v>310</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -38795,7 +39457,7 @@
         <v>294</v>
       </c>
       <c r="AA95" t="s">
-        <v>547</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -38803,7 +39465,7 @@
         <v>340</v>
       </c>
       <c r="AA96" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97">
@@ -38811,7 +39473,7 @@
         <v>276</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98">
@@ -38819,236 +39481,241 @@
         <v>277</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>568</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>498</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>523</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>569</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>570</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>571</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>544</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -38,23 +38,23 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31959" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33237" uniqueCount="646">
   <si>
     <t>description</t>
   </si>
@@ -1858,6 +1858,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +2015,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="907" x14ac:knownFonts="1">
+  <fonts count="941" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7598,8 +7748,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1516">
+  <fills count="1564">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16184,6 +16548,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -34488,7 +35124,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="933">
+  <cellXfs count="967">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37257,52 +37893,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="890" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="891" fillId="1491" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1491" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="892" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="893" fillId="1494" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1494" fontId="893" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="894" fillId="1497" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1778" fillId="1497" fontId="894" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="895" fillId="1500" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1500" fontId="895" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="896" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="897" fillId="1503" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1503" fontId="897" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="899" fillId="1506" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="900" fillId="1497" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="901" fillId="1509" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="902" fillId="1509" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="903" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="904" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="905" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="906" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1786" fillId="1506" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1497" fontId="900" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1509" fontId="901" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1509" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1521" fontId="909" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="910" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="912" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="913" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1533" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="916" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="917" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="920" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="921" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37657,7 +38395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37748,21 +38486,24 @@
         <v>586</v>
       </c>
       <c r="AA1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>413</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -37846,21 +38587,24 @@
         <v>590</v>
       </c>
       <c r="AA2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -37935,21 +38679,24 @@
         <v>591</v>
       </c>
       <c r="AA3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>363</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -38021,21 +38768,24 @@
         <v>592</v>
       </c>
       <c r="AA4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB4" t="s">
         <v>561</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -38095,21 +38845,24 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB5" t="s">
         <v>555</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>573</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>424</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -38166,21 +38919,24 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>444</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>425</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -38228,21 +38984,24 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>445</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>426</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -38290,21 +39049,24 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>427</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -38349,15 +39111,18 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -38393,15 +39158,18 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>574</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -38431,15 +39199,18 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>247</v>
+        <v>602</v>
       </c>
       <c r="AA11" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -38469,15 +39240,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -38507,15 +39281,18 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>566</v>
+        <v>248</v>
       </c>
       <c r="AA13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB13" t="s">
         <v>326</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>474</v>
       </c>
     </row>
@@ -38542,15 +39319,18 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>566</v>
       </c>
       <c r="AA14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -38577,15 +39357,18 @@
         <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB15" t="s">
         <v>593</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -38612,15 +39395,18 @@
         <v>492</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB16" t="s">
         <v>567</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -38641,15 +39427,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>466</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -38669,10 +39458,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
       <c r="AA18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -38681,7 +39476,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>596</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -38690,9 +39485,12 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB19" t="s">
         <v>493</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -38701,7 +39499,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>597</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -38710,9 +39508,12 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -38721,7 +39522,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>598</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -38730,9 +39531,12 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -38741,7 +39545,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>538</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -38750,9 +39554,12 @@
         <v>558</v>
       </c>
       <c r="AA22" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -38761,7 +39568,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -38770,9 +39577,12 @@
         <v>470</v>
       </c>
       <c r="AA23" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -38781,7 +39591,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -38790,9 +39600,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB24" t="s">
         <v>494</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>533</v>
       </c>
     </row>
@@ -38801,7 +39614,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>599</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -38810,9 +39623,12 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>534</v>
       </c>
     </row>
@@ -38821,234 +39637,294 @@
         <v>586</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="AA26" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB26" t="s">
         <v>542</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>577</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="AA27" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA29" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB31" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>469</v>
       </c>
       <c r="H34" t="s">
         <v>509</v>
       </c>
       <c r="AA34" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>330</v>
       </c>
       <c r="AA36" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB36" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>539</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>600</v>
+      </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>392</v>
       </c>
     </row>
@@ -39056,7 +39932,7 @@
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -39064,7 +39940,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -39072,7 +39948,7 @@
       <c r="H47" t="s">
         <v>343</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -39080,7 +39956,7 @@
       <c r="H48" t="s">
         <v>342</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -39088,7 +39964,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -39096,7 +39972,7 @@
       <c r="H50" t="s">
         <v>320</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -39104,7 +39980,7 @@
       <c r="H51" t="s">
         <v>339</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>594</v>
       </c>
     </row>
@@ -39112,7 +39988,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -39120,7 +39996,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -39128,7 +40004,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>536</v>
       </c>
     </row>
@@ -39136,7 +40012,7 @@
       <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -39144,7 +40020,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -39152,7 +40028,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -39160,7 +40036,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>495</v>
       </c>
     </row>
@@ -39168,7 +40044,7 @@
       <c r="H59" t="s">
         <v>540</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -39176,7 +40052,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -39184,7 +40060,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>346</v>
       </c>
     </row>
@@ -39192,7 +40068,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -39200,7 +40076,7 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -39208,7 +40084,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -39216,7 +40092,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -39224,7 +40100,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -39232,7 +40108,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -39240,7 +40116,7 @@
       <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -39248,7 +40124,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -39256,7 +40132,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -39264,7 +40140,7 @@
       <c r="H71" t="s">
         <v>525</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>473</v>
       </c>
     </row>
@@ -39272,7 +40148,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -39280,7 +40156,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -39288,7 +40164,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -39296,7 +40172,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -39304,7 +40180,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -39312,7 +40188,7 @@
       <c r="H77" t="s">
         <v>510</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -39320,7 +40196,7 @@
       <c r="H78" t="s">
         <v>344</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -39328,395 +40204,425 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
+      <c r="AB79" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
+      <c r="AB80" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AA81" t="s">
-        <v>452</v>
+      <c r="AB81" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AA82" t="s">
-        <v>465</v>
+      <c r="AB82" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>332</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
+      <c r="AB83" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
+      <c r="AB84" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
+      <c r="AB85" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AA86" t="s">
-        <v>496</v>
+      <c r="AB86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
+      <c r="AB87" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>528</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
+      <c r="AB88" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
+      <c r="AB89" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AA90" t="s">
-        <v>497</v>
+      <c r="AB90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AA91" t="s">
-        <v>564</v>
+      <c r="AB91" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
+      <c r="AB92" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AA93" t="s">
-        <v>453</v>
+      <c r="AB93" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
+      <c r="AB94" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
+      <c r="AB95" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>340</v>
       </c>
-      <c r="AA96" t="s">
-        <v>547</v>
+      <c r="AB96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AA97" t="s">
-        <v>548</v>
+      <c r="AB97" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AA98" t="s">
-        <v>213</v>
+      <c r="AB98" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="99">
-      <c r="AA99" t="s">
-        <v>146</v>
+      <c r="AB99" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AA100" t="s">
-        <v>201</v>
+      <c r="AB100" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AA101" t="s">
-        <v>441</v>
+      <c r="AB101" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AA102" t="s">
-        <v>562</v>
+      <c r="AB102" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="103">
-      <c r="AA103" t="s">
-        <v>563</v>
+      <c r="AB103" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="104">
-      <c r="AA104" t="s">
-        <v>442</v>
+      <c r="AB104" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="105">
-      <c r="AA105" t="s">
-        <v>202</v>
+      <c r="AB105" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="106">
-      <c r="AA106" t="s">
-        <v>203</v>
+      <c r="AB106" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AA107" t="s">
-        <v>204</v>
+      <c r="AB107" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AA108" t="s">
-        <v>205</v>
+      <c r="AB108" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AA109" t="s">
-        <v>222</v>
+      <c r="AB109" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AA110" t="s">
-        <v>568</v>
+      <c r="AB110" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="111">
-      <c r="AA111" t="s">
-        <v>206</v>
+      <c r="AB111" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="112">
-      <c r="AA112" t="s">
-        <v>498</v>
+      <c r="AB112" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AA113" t="s">
-        <v>553</v>
+      <c r="AB113" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="AA114" t="s">
-        <v>522</v>
+      <c r="AB114" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="115">
-      <c r="AA115" t="s">
-        <v>147</v>
+      <c r="AB115" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="116">
-      <c r="AA116" t="s">
-        <v>523</v>
+      <c r="AB116" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="117">
-      <c r="AA117" t="s">
-        <v>382</v>
+      <c r="AB117" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AA118" t="s">
-        <v>148</v>
+      <c r="AB118" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="119">
-      <c r="AA119" t="s">
-        <v>149</v>
+      <c r="AB119" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="120">
-      <c r="AA120" t="s">
-        <v>569</v>
+      <c r="AB120" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AA121" t="s">
-        <v>150</v>
+      <c r="AB121" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AA122" t="s">
-        <v>151</v>
+      <c r="AB122" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="123">
-      <c r="AA123" t="s">
-        <v>570</v>
+      <c r="AB123" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AA124" t="s">
-        <v>152</v>
+      <c r="AB124" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AA125" t="s">
-        <v>153</v>
+      <c r="AB125" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="126">
-      <c r="AA126" t="s">
-        <v>154</v>
+      <c r="AB126" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AA127" t="s">
-        <v>155</v>
+      <c r="AB127" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AA128" t="s">
-        <v>156</v>
+      <c r="AB128" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AA129" t="s">
-        <v>157</v>
+      <c r="AB129" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AA130" t="s">
-        <v>571</v>
+      <c r="AB130" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AA131" t="s">
-        <v>158</v>
+      <c r="AB131" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AA132" t="s">
-        <v>159</v>
+      <c r="AB132" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="133">
-      <c r="AA133" t="s">
-        <v>160</v>
+      <c r="AB133" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AA134" t="s">
-        <v>595</v>
+      <c r="AB134" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AA135" t="s">
-        <v>161</v>
+      <c r="AB135" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AA136" t="s">
-        <v>544</v>
+      <c r="AB136" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="137">
-      <c r="AA137" t="s">
-        <v>162</v>
+      <c r="AB137" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AA138" t="s">
-        <v>163</v>
+      <c r="AB138" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="139">
-      <c r="AA139" t="s">
-        <v>164</v>
+      <c r="AB139" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AA140" t="s">
-        <v>46</v>
+      <c r="AB140" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AA141" t="s">
-        <v>165</v>
+      <c r="AB141" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AA142" t="s">
-        <v>572</v>
+      <c r="AB142" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AA143" t="s">
-        <v>166</v>
+      <c r="AB143" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="144">
-      <c r="AA144" t="s">
-        <v>167</v>
+      <c r="AB144" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="145">
-      <c r="AA145" t="s">
+      <c r="AB145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AB146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,14 +45,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33237" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33839" uniqueCount="648">
   <si>
     <t>description</t>
   </si>
@@ -2008,6 +2008,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2021,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="941" x14ac:knownFonts="1">
+  <fonts count="958" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7962,8 +7968,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1564">
+  <fills count="1588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16548,6 +16661,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -35124,7 +35373,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="967">
+  <cellXfs count="984">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37992,55 +38241,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="923" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="924" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="925" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="926" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="926" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1548" fontId="927" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="928" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1551" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="929" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="930" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="932" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="931" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="932" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="933" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1548" fontId="934" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="1563" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1551" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="935" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="936" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1551" fontId="937" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1563" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1551" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1578" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -38395,7 +38695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38486,24 +38786,21 @@
         <v>586</v>
       </c>
       <c r="AA1" t="s">
-        <v>577</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="AF1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -38536,7 +38833,7 @@
         <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>647</v>
       </c>
       <c r="K2" t="s">
         <v>584</v>
@@ -38587,24 +38884,21 @@
         <v>590</v>
       </c>
       <c r="AA2" t="s">
-        <v>603</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="AF2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AG2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -38634,7 +38928,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>349</v>
@@ -38679,24 +38973,21 @@
         <v>591</v>
       </c>
       <c r="AA3" t="s">
-        <v>604</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>363</v>
       </c>
       <c r="AE3" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -38723,7 +39014,7 @@
         <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K4" t="s">
         <v>350</v>
@@ -38768,24 +39059,21 @@
         <v>592</v>
       </c>
       <c r="AA4" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="AB4" t="s">
-        <v>561</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="AF4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -38812,7 +39100,7 @@
         <v>459</v>
       </c>
       <c r="J5" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="K5" t="s">
         <v>351</v>
@@ -38845,24 +39133,21 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="AB5" t="s">
-        <v>555</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="AD5" t="s">
-        <v>573</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>424</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -38889,7 +39174,7 @@
         <v>447</v>
       </c>
       <c r="J6" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="K6" t="s">
         <v>585</v>
@@ -38919,24 +39204,21 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
-        <v>607</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AC6" t="s">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>425</v>
       </c>
       <c r="AF6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -38956,6 +39238,9 @@
       <c r="I7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>559</v>
+      </c>
       <c r="K7" t="s">
         <v>348</v>
       </c>
@@ -38984,24 +39269,21 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
-        <v>608</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AC7" t="s">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>426</v>
       </c>
       <c r="AF7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -39049,24 +39331,21 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
-        <v>609</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>427</v>
       </c>
       <c r="AF8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -39111,18 +39390,15 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -39158,18 +39434,15 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB10" t="s">
         <v>256</v>
       </c>
+      <c r="AC10" t="s">
+        <v>574</v>
+      </c>
       <c r="AD10" t="s">
-        <v>574</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -39178,7 +39451,7 @@
         <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
       <c r="H11" t="s">
         <v>352</v>
@@ -39202,15 +39475,12 @@
         <v>602</v>
       </c>
       <c r="AA11" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -39219,7 +39489,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>554</v>
       </c>
       <c r="H12" t="s">
         <v>273</v>
@@ -39243,15 +39513,12 @@
         <v>247</v>
       </c>
       <c r="AA12" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -39260,7 +39527,7 @@
         <v>333</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="H13" t="s">
         <v>262</v>
@@ -39284,15 +39551,12 @@
         <v>248</v>
       </c>
       <c r="AA13" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB13" t="s">
         <v>326</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>474</v>
       </c>
     </row>
@@ -39301,7 +39565,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="H14" t="s">
         <v>315</v>
@@ -39322,15 +39586,12 @@
         <v>566</v>
       </c>
       <c r="AA14" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -39339,7 +39600,7 @@
         <v>507</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>263</v>
@@ -39360,15 +39621,12 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB15" t="s">
         <v>593</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -39377,7 +39635,7 @@
         <v>477</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>264</v>
@@ -39398,15 +39656,12 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB16" t="s">
         <v>567</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -39415,7 +39670,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" t="s">
         <v>316</v>
@@ -39430,15 +39685,12 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -39447,7 +39699,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -39462,12 +39714,9 @@
         <v>251</v>
       </c>
       <c r="AA18" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -39476,7 +39725,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>596</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -39485,12 +39734,9 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB19" t="s">
         <v>493</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -39499,7 +39745,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -39508,12 +39754,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -39522,7 +39765,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -39531,12 +39774,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -39545,7 +39785,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>598</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -39554,12 +39794,9 @@
         <v>558</v>
       </c>
       <c r="AA22" t="s">
-        <v>579</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -39568,7 +39805,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -39577,12 +39814,9 @@
         <v>470</v>
       </c>
       <c r="AA23" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -39591,7 +39825,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -39600,12 +39834,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB24" t="s">
         <v>494</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>533</v>
       </c>
     </row>
@@ -39614,7 +39845,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>599</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -39623,12 +39854,9 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>534</v>
       </c>
     </row>
@@ -39637,7 +39865,7 @@
         <v>586</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -39646,21 +39874,18 @@
         <v>601</v>
       </c>
       <c r="AA26" t="s">
-        <v>580</v>
-      </c>
-      <c r="AB26" t="s">
         <v>542</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>538</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -39669,21 +39894,18 @@
         <v>524</v>
       </c>
       <c r="AA27" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -39692,18 +39914,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -39712,18 +39931,15 @@
         <v>433</v>
       </c>
       <c r="AA29" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -39732,18 +39948,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -39752,187 +39965,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB31" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
       <c r="F33" t="s">
-        <v>468</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H34" t="s">
         <v>509</v>
       </c>
       <c r="AA34" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H36" t="s">
         <v>330</v>
       </c>
       <c r="AA36" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB36" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>539</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>600</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>600</v>
+      </c>
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -39940,7 +40129,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -39948,7 +40137,7 @@
       <c r="H47" t="s">
         <v>343</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -39956,7 +40145,7 @@
       <c r="H48" t="s">
         <v>342</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -39964,7 +40153,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -39972,7 +40161,7 @@
       <c r="H50" t="s">
         <v>320</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -39980,7 +40169,7 @@
       <c r="H51" t="s">
         <v>339</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>594</v>
       </c>
     </row>
@@ -39988,7 +40177,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -39996,7 +40185,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -40004,7 +40193,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>536</v>
       </c>
     </row>
@@ -40012,7 +40201,7 @@
       <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -40020,7 +40209,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -40028,7 +40217,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -40036,7 +40225,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>495</v>
       </c>
     </row>
@@ -40044,7 +40233,7 @@
       <c r="H59" t="s">
         <v>540</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -40052,7 +40241,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -40060,7 +40249,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>346</v>
       </c>
     </row>
@@ -40068,7 +40257,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -40076,7 +40265,7 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -40084,7 +40273,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -40092,7 +40281,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -40100,7 +40289,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -40108,7 +40297,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -40116,7 +40305,7 @@
       <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -40124,7 +40313,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -40132,7 +40321,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -40140,7 +40329,7 @@
       <c r="H71" t="s">
         <v>525</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>473</v>
       </c>
     </row>
@@ -40148,7 +40337,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -40156,7 +40345,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -40164,7 +40353,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -40172,7 +40361,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -40180,7 +40369,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -40188,7 +40377,7 @@
       <c r="H77" t="s">
         <v>510</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -40196,7 +40385,7 @@
       <c r="H78" t="s">
         <v>344</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -40204,7 +40393,7 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>638</v>
       </c>
     </row>
@@ -40212,7 +40401,7 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -40220,7 +40409,7 @@
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -40228,7 +40417,7 @@
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>452</v>
       </c>
     </row>
@@ -40236,7 +40425,7 @@
       <c r="H83" t="s">
         <v>332</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>465</v>
       </c>
     </row>
@@ -40244,7 +40433,7 @@
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -40252,7 +40441,7 @@
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -40260,7 +40449,7 @@
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -40268,7 +40457,7 @@
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>496</v>
       </c>
     </row>
@@ -40276,7 +40465,7 @@
       <c r="H88" t="s">
         <v>528</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -40284,7 +40473,7 @@
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -40292,7 +40481,7 @@
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -40300,7 +40489,7 @@
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>497</v>
       </c>
     </row>
@@ -40308,7 +40497,7 @@
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>564</v>
       </c>
     </row>
@@ -40316,7 +40505,7 @@
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -40324,7 +40513,7 @@
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>453</v>
       </c>
     </row>
@@ -40332,7 +40521,7 @@
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -40340,7 +40529,7 @@
       <c r="H96" t="s">
         <v>340</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -40348,7 +40537,7 @@
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>547</v>
       </c>
     </row>
@@ -40356,272 +40545,272 @@
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>645</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33839" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35043" uniqueCount="648">
   <si>
     <t>description</t>
   </si>
@@ -2021,7 +2021,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="958" x14ac:knownFonts="1">
+  <fonts count="992" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8075,8 +8075,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1588">
+  <fills count="1636">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16661,6 +16875,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -35373,7 +35859,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="984">
+  <cellXfs count="1018">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38292,55 +38778,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="940" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="941" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="943" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="944" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="944" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="945" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="946" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1578" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1578" fontId="947" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="949" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="948" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="949" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="950" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="951" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="951" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="954" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="952" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="953" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1590" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1593" fontId="960" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="961" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="962" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="963" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1602" fontId="964" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="965" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1605" fontId="966" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="967" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="968" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="969" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="1632" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="1632" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -28,12 +28,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35043" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36253" uniqueCount="652">
   <si>
     <t>description</t>
   </si>
@@ -2014,6 +2014,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2033,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="992" x14ac:knownFonts="1">
+  <fonts count="1026" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8289,8 +8301,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1636">
+  <fills count="1684">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16875,6 +17101,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -35859,7 +36357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1018">
+  <cellXfs count="1052">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38880,55 +39378,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="974" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="975" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="976" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="977" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1617" fontId="977" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="978" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="978" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="979" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="979" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="980" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="981" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="981" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="983" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="982" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1629" fontId="983" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="984" fillId="1632" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1632" fontId="984" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="985" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="985" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="988" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="989" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="990" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="991" fillId="1632" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1635" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1632" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="993" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="994" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1644" fontId="995" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1647" fontId="996" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="997" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1650" fontId="998" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="999" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="1000" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="1001" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1644" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1647" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1659" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1647" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="1008" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -39442,7 +40042,7 @@
         <v>488</v>
       </c>
       <c r="Q2" t="s">
-        <v>416</v>
+        <v>649</v>
       </c>
       <c r="R2" t="s">
         <v>429</v>
@@ -39536,6 +40136,9 @@
       <c r="P3" t="s">
         <v>489</v>
       </c>
+      <c r="Q3" t="s">
+        <v>650</v>
+      </c>
       <c r="R3" t="s">
         <v>430</v>
       </c>
@@ -39622,6 +40225,9 @@
       <c r="P4" t="s">
         <v>490</v>
       </c>
+      <c r="Q4" t="s">
+        <v>651</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -39833,7 +40439,7 @@
         <v>348</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>648</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -39895,7 +40501,7 @@
         <v>535</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -39954,7 +40560,7 @@
         <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -40004,7 +40610,7 @@
         <v>575</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -40048,7 +40654,7 @@
         <v>576</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
@@ -40086,7 +40692,7 @@
         <v>451</v>
       </c>
       <c r="L12" t="s">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>537</v>
@@ -40124,7 +40730,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -40162,7 +40768,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N14" t="s">
         <v>472</v>
@@ -40197,7 +40803,7 @@
         <v>324</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -40232,7 +40838,7 @@
         <v>325</v>
       </c>
       <c r="L16" t="s">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>541</v>
@@ -40264,7 +40870,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -40293,7 +40899,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -40319,7 +40925,7 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
         <v>493</v>
@@ -40339,7 +40945,7 @@
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -40359,7 +40965,7 @@
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -40379,7 +40985,7 @@
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>558</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -40399,7 +41005,7 @@
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -40419,7 +41025,7 @@
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="AA24" t="s">
         <v>494</v>
@@ -40439,7 +41045,7 @@
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -40459,7 +41065,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="AA26" t="s">
         <v>542</v>
@@ -40479,7 +41085,7 @@
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -40499,7 +41105,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -40516,7 +41122,7 @@
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -40533,7 +41139,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -40550,7 +41156,7 @@
         <v>215</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>327</v>
@@ -40565,6 +41171,9 @@
       </c>
       <c r="H32" t="s">
         <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -33,12 +33,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36253" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36862" uniqueCount="658">
   <si>
     <t>description</t>
   </si>
@@ -2026,6 +2026,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2051,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1026" x14ac:knownFonts="1">
+  <fonts count="1043" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8515,8 +8533,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1684">
+  <fills count="1708">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17101,6 +17226,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -36357,7 +36618,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1052">
+  <cellXfs count="1069">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39480,55 +39741,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="1008" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1662" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1662" fontId="1009" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1010" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1665" fontId="1011" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="1012" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1671" fontId="1013" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1014" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1674" fontId="1015" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1016" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1677" fontId="1017" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1018" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="1018" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="1019" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1021" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1024" fillId="1671" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1671" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1683" fontId="1023" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1671" fontId="1024" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="1025" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1686" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="1689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="1698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="1701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1704" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40042,7 +40354,7 @@
         <v>488</v>
       </c>
       <c r="Q2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="R2" t="s">
         <v>429</v>
@@ -40137,7 +40449,7 @@
         <v>489</v>
       </c>
       <c r="Q3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="R3" t="s">
         <v>430</v>
@@ -40226,7 +40538,7 @@
         <v>490</v>
       </c>
       <c r="Q4" t="s">
-        <v>651</v>
+        <v>416</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -40308,6 +40620,9 @@
       <c r="O5" t="s">
         <v>514</v>
       </c>
+      <c r="Q5" t="s">
+        <v>654</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -40742,7 +41057,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>248</v>
+        <v>655</v>
       </c>
       <c r="AA13" t="s">
         <v>326</v>
@@ -40777,7 +41092,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>566</v>
+        <v>248</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -40812,7 +41127,7 @@
         <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>566</v>
       </c>
       <c r="AA15" t="s">
         <v>593</v>
@@ -40847,7 +41162,7 @@
         <v>492</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA16" t="s">
         <v>567</v>
@@ -40876,7 +41191,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -40905,7 +41220,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -40927,6 +41242,9 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
+      <c r="S19" t="s">
+        <v>656</v>
+      </c>
       <c r="AA19" t="s">
         <v>493</v>
       </c>
@@ -40947,6 +41265,9 @@
       <c r="L20" t="s">
         <v>462</v>
       </c>
+      <c r="S20" t="s">
+        <v>251</v>
+      </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
@@ -40966,6 +41287,9 @@
       </c>
       <c r="L21" t="s">
         <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>657</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -20,12 +20,12 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -45,17 +45,19 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36862" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37505" uniqueCount="695">
   <si>
     <t>description</t>
   </si>
@@ -2044,6 +2046,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1043" x14ac:knownFonts="1">
+  <fonts count="1060" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8640,8 +8753,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1708">
+  <fills count="1732">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17226,6 +17446,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -36618,7 +36974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1069">
+  <cellXfs count="1086">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39841,6 +40197,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1042" fillId="1704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="1710" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="1713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="1716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="1722" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="1731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40195,7 +40602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -40295,12 +40702,18 @@
         <v>56</v>
       </c>
       <c r="AD1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>413</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -40393,12 +40806,18 @@
         <v>174</v>
       </c>
       <c r="AD2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -40485,12 +40904,18 @@
         <v>175</v>
       </c>
       <c r="AD3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>688</v>
+      </c>
+      <c r="AF3" t="s">
         <v>363</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -40574,12 +40999,18 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -40650,13 +41081,16 @@
       <c r="AC5" t="s">
         <v>573</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>424</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -40721,13 +41155,16 @@
       <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>425</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -40786,13 +41223,16 @@
       <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>426</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -40810,7 +41250,7 @@
         <v>365</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>680</v>
       </c>
       <c r="K8" t="s">
         <v>535</v>
@@ -40848,13 +41288,16 @@
       <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>427</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -40872,7 +41315,7 @@
         <v>366</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -40904,10 +41347,13 @@
       <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -40922,7 +41368,7 @@
         <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>575</v>
+        <v>329</v>
       </c>
       <c r="L10" t="s">
         <v>485</v>
@@ -40948,10 +41394,10 @@
       <c r="AC10" t="s">
         <v>574</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -40966,7 +41412,7 @@
         <v>352</v>
       </c>
       <c r="I11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -40986,10 +41432,10 @@
       <c r="AA11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -41004,7 +41450,7 @@
         <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -41024,10 +41470,10 @@
       <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -41042,7 +41488,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L13" t="s">
         <v>486</v>
@@ -41062,10 +41508,10 @@
       <c r="AA13" t="s">
         <v>326</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>474</v>
       </c>
     </row>
@@ -41080,7 +41526,7 @@
         <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>389</v>
@@ -41097,10 +41543,10 @@
       <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -41115,7 +41561,7 @@
         <v>263</v>
       </c>
       <c r="I15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -41132,10 +41578,10 @@
       <c r="AA15" t="s">
         <v>593</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -41150,7 +41596,7 @@
         <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -41167,10 +41613,10 @@
       <c r="AA16" t="s">
         <v>567</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -41184,6 +41630,9 @@
       <c r="H17" t="s">
         <v>316</v>
       </c>
+      <c r="I17" t="s">
+        <v>325</v>
+      </c>
       <c r="L17" t="s">
         <v>487</v>
       </c>
@@ -41196,10 +41645,10 @@
       <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>466</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -41213,6 +41662,9 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
+      <c r="I18" t="s">
+        <v>681</v>
+      </c>
       <c r="L18" t="s">
         <v>81</v>
       </c>
@@ -41225,7 +41677,7 @@
       <c r="AA18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -41234,7 +41686,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>660</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -41248,7 +41700,7 @@
       <c r="AA19" t="s">
         <v>493</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -41257,7 +41709,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -41271,7 +41723,7 @@
       <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -41280,7 +41732,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>597</v>
+        <v>414</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -41294,7 +41746,7 @@
       <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -41303,7 +41755,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -41314,7 +41766,7 @@
       <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -41323,7 +41775,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>597</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -41334,7 +41786,7 @@
       <c r="AA23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -41343,7 +41795,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>598</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -41354,7 +41806,7 @@
       <c r="AA24" t="s">
         <v>494</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>533</v>
       </c>
     </row>
@@ -41363,7 +41815,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -41374,7 +41826,7 @@
       <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>534</v>
       </c>
     </row>
@@ -41383,18 +41835,18 @@
         <v>586</v>
       </c>
       <c r="F26" t="s">
-        <v>599</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>662</v>
       </c>
       <c r="L26" t="s">
         <v>391</v>
       </c>
       <c r="AA26" t="s">
-        <v>542</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -41403,18 +41855,18 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>538</v>
+        <v>255</v>
       </c>
       <c r="H27" t="s">
-        <v>281</v>
+        <v>663</v>
       </c>
       <c r="L27" t="s">
         <v>601</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH27" t="s">
         <v>236</v>
       </c>
     </row>
@@ -41423,16 +41875,16 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>599</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>524</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -41440,898 +41892,959 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>321</v>
+        <v>538</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
         <v>433</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>659</v>
       </c>
       <c r="F31" t="s">
-        <v>448</v>
+        <v>321</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>327</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>413</v>
+      </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>448</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="AA33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
       <c r="F34" t="s">
-        <v>468</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>509</v>
+        <v>274</v>
       </c>
       <c r="AA34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>469</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AA35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
       <c r="AA36" t="s">
-        <v>543</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="H37" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="AA38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AA40" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AA41" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="AA42" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>539</v>
+        <v>664</v>
       </c>
       <c r="AA43" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="AA45" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
       <c r="H46" t="s">
-        <v>300</v>
+        <v>539</v>
       </c>
       <c r="AA46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
+      <c r="F47" t="s">
+        <v>600</v>
+      </c>
       <c r="H47" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="AA47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AA51" t="s">
-        <v>594</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>211</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="AA53" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>355</v>
+        <v>665</v>
       </c>
       <c r="AA54" t="s">
-        <v>536</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>331</v>
+        <v>666</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>267</v>
+        <v>667</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>291</v>
+        <v>668</v>
       </c>
       <c r="AA57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="AA58" t="s">
-        <v>495</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>540</v>
+        <v>367</v>
       </c>
       <c r="AA59" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AA60" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AA61" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="AA62" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>309</v>
+        <v>540</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>369</v>
+        <v>669</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>345</v>
+        <v>670</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>312</v>
+        <v>671</v>
       </c>
       <c r="AA69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="AA70" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="AA71" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>313</v>
+        <v>673</v>
       </c>
       <c r="AA72" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="AA73" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AA74" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AA79" t="s">
-        <v>638</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>290</v>
+        <v>525</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="AA82" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="AA83" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>269</v>
+        <v>674</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>280</v>
+        <v>675</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c r="AA87" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>287</v>
+        <v>676</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="AA91" t="s">
-        <v>497</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="AA92" t="s">
-        <v>564</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="AA94" t="s">
-        <v>453</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AA97" t="s">
-        <v>547</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>548</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
+      <c r="H99" t="s">
+        <v>528</v>
+      </c>
       <c r="AA99" t="s">
-        <v>213</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100">
+      <c r="H100" t="s">
+        <v>270</v>
+      </c>
       <c r="AA100" t="s">
-        <v>146</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101">
+      <c r="H101" t="s">
+        <v>287</v>
+      </c>
       <c r="AA101" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102">
+      <c r="H102" t="s">
+        <v>678</v>
+      </c>
       <c r="AA102" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
+      <c r="H103" t="s">
+        <v>679</v>
+      </c>
       <c r="AA103" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
+      <c r="H104" t="s">
+        <v>271</v>
+      </c>
       <c r="AA104" t="s">
-        <v>563</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105">
+      <c r="H105" t="s">
+        <v>272</v>
+      </c>
       <c r="AA105" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106">
+      <c r="H106" t="s">
+        <v>304</v>
+      </c>
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107">
+      <c r="H107" t="s">
+        <v>310</v>
+      </c>
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108">
+      <c r="H108" t="s">
+        <v>294</v>
+      </c>
       <c r="AA108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109">
+      <c r="H109" t="s">
+        <v>340</v>
+      </c>
       <c r="AA109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110">
+      <c r="H110" t="s">
+        <v>276</v>
+      </c>
       <c r="AA110" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
+      <c r="H111" t="s">
+        <v>277</v>
+      </c>
       <c r="AA111" t="s">
-        <v>568</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>639</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>522</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>569</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>570</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>153</v>
+        <v>570</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>571</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>595</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>641</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>572</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>166</v>
+        <v>641</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>167</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>642</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>643</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>645</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ws.xlsx
@@ -21,43 +21,46 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37505" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38286" uniqueCount="781">
   <si>
     <t>description</t>
   </si>
@@ -2157,6 +2160,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1060" x14ac:knownFonts="1">
+  <fonts count="1077" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8860,8 +9121,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1732">
+  <fills count="1756">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17446,6 +17814,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -36974,7 +37478,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1086">
+  <cellXfs count="1103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40148,106 +40652,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="1025" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1686" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1686" fontId="1026" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1027" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1028" fillId="1689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1689" fontId="1028" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="1029" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1030" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="1030" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1031" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1032" fillId="1698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1698" fontId="1032" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1033" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="1701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1033" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1701" fontId="1034" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1704" fontId="1035" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="1036" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1039" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1040" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1704" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1043" fillId="1710" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="1040" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="1041" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1704" fontId="1042" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1710" fontId="1043" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1045" fillId="1713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1713" fontId="1045" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1046" fillId="1716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1716" fontId="1046" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="1047" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1048" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1048" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1049" fillId="1722" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="1049" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1050" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1051" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1725" fontId="1051" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1052" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1728" fontId="1052" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1716" fontId="1053" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1056" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1057" fillId="1731" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1058" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1059" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1731" fontId="1057" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="1058" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1728" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1740" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="1743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1740" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1755" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40602,7 +41157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -40633,87 +41188,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>347</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>696</v>
+      </c>
+      <c r="O1" t="s">
         <v>333</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>507</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>477</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>697</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>238</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>412</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>356</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>396</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>586</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>658</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>659</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>413</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -40737,87 +41304,99 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>449</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>647</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>584</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>314</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>386</v>
+      </c>
+      <c r="O2" t="s">
         <v>383</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>434</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>511</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>488</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>652</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>720</v>
+      </c>
+      <c r="U2" t="s">
         <v>429</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>252</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>588</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>397</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>419</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>380</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>406</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>590</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>776</v>
+      </c>
+      <c r="AI2" t="s">
         <v>687</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>431</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -40838,84 +41417,96 @@
         <v>457</v>
       </c>
       <c r="G3" t="s">
+        <v>699</v>
+      </c>
+      <c r="H3" t="s">
         <v>364</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>349</v>
       </c>
-      <c r="L3" t="s">
-        <v>341</v>
-      </c>
       <c r="M3" t="s">
+        <v>706</v>
+      </c>
+      <c r="N3" t="s">
+        <v>707</v>
+      </c>
+      <c r="O3" t="s">
         <v>334</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>512</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>489</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>653</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>721</v>
+      </c>
+      <c r="U3" t="s">
         <v>430</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>239</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>589</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>398</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>420</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>381</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>407</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>591</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI3" t="s">
         <v>688</v>
       </c>
-      <c r="AF3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AK3" t="s">
         <v>182</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -40933,84 +41524,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>386</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>450</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>483</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>350</v>
       </c>
-      <c r="L4" t="s">
-        <v>560</v>
-      </c>
       <c r="M4" t="s">
+        <v>341</v>
+      </c>
+      <c r="N4" t="s">
+        <v>387</v>
+      </c>
+      <c r="O4" t="s">
         <v>335</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>513</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>490</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>416</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>722</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>240</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>216</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>399</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>421</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>357</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>408</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>592</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE4" t="s">
         <v>561</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
-        <v>686</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI4" t="s">
         <v>689</v>
       </c>
-      <c r="AF4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK4" t="s">
         <v>423</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -41028,69 +41631,84 @@
         <v>458</v>
       </c>
       <c r="G5" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" t="s">
         <v>432</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>546</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>459</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>484</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>351</v>
       </c>
-      <c r="L5" t="s">
-        <v>237</v>
+      <c r="M5" t="s">
+        <v>560</v>
       </c>
       <c r="N5" t="s">
+        <v>708</v>
+      </c>
+      <c r="P5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>514</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>654</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>593</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>241</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>217</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>400</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>422</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>358</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE5" t="s">
         <v>555</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>573</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI5" t="s">
         <v>690</v>
       </c>
-      <c r="AF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" t="s">
         <v>424</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -41108,69 +41726,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>702</v>
+      </c>
+      <c r="H6" t="s">
         <v>482</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>336</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>526</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>585</v>
       </c>
-      <c r="L6" t="s">
-        <v>461</v>
+      <c r="M6" t="s">
+        <v>237</v>
       </c>
       <c r="N6" t="s">
+        <v>709</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>515</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>567</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>242</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>218</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>401</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>360</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>444</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AI6" t="s">
         <v>691</v>
       </c>
-      <c r="AF6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK6" t="s">
         <v>425</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>695</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
@@ -41178,67 +41811,79 @@
       <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>703</v>
+      </c>
+      <c r="I7" t="s">
         <v>387</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>559</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>348</v>
       </c>
-      <c r="L7" t="s">
-        <v>648</v>
+      <c r="M7" t="s">
+        <v>461</v>
       </c>
       <c r="N7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>516</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>243</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>219</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>402</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>359</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>445</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>178</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>692</v>
       </c>
-      <c r="AF7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>779</v>
+      </c>
+      <c r="AK7" t="s">
         <v>426</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
@@ -41246,64 +41891,73 @@
       <c r="F8" t="s">
         <v>318</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>365</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>680</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>535</v>
       </c>
-      <c r="L8" t="s">
-        <v>72</v>
+      <c r="M8" t="s">
+        <v>648</v>
       </c>
       <c r="N8" t="s">
+        <v>710</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>517</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>723</v>
+      </c>
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>390</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>403</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>361</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>179</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>693</v>
       </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK8" t="s">
         <v>427</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
@@ -41311,1541 +41965,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>366</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>328</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>72</v>
       </c>
       <c r="N9" t="s">
+        <v>711</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>518</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>417</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>404</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>362</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>694</v>
       </c>
-      <c r="AF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL9" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>305</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>329</v>
       </c>
-      <c r="L10" t="s">
-        <v>485</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>712</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>519</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>724</v>
+      </c>
+      <c r="U10" t="s">
         <v>436</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>246</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>405</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>574</v>
       </c>
-      <c r="AF10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>646</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>352</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>575</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
+      <c r="M11" t="s">
+        <v>485</v>
       </c>
       <c r="N11" t="s">
+        <v>713</v>
+      </c>
+      <c r="P11" t="s">
         <v>471</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>520</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>493</v>
+      </c>
+      <c r="U11" t="s">
         <v>93</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>602</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE11" t="s">
         <v>257</v>
       </c>
-      <c r="AF11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
         <v>554</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>273</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>576</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>80</v>
       </c>
       <c r="N12" t="s">
+        <v>714</v>
+      </c>
+      <c r="P12" t="s">
         <v>537</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>587</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>725</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>247</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE12" t="s">
         <v>101</v>
       </c>
-      <c r="AF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>319</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>262</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>451</v>
       </c>
-      <c r="L13" t="s">
-        <v>486</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>715</v>
+      </c>
+      <c r="P13" t="s">
         <v>435</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>521</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>726</v>
+      </c>
+      <c r="U13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>655</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE13" t="s">
         <v>326</v>
       </c>
-      <c r="AF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL13" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>696</v>
       </c>
       <c r="F14" t="s">
         <v>341</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>315</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>322</v>
       </c>
-      <c r="L14" t="s">
-        <v>389</v>
+      <c r="M14" t="s">
+        <v>486</v>
       </c>
       <c r="N14" t="s">
+        <v>716</v>
+      </c>
+      <c r="P14" t="s">
         <v>472</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>727</v>
+      </c>
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>248</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE14" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>780</v>
+      </c>
+      <c r="AL14" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>333</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>263</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>323</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>389</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>717</v>
+      </c>
+      <c r="P15" t="s">
+        <v>719</v>
+      </c>
+      <c r="T15" t="s">
+        <v>728</v>
+      </c>
+      <c r="U15" t="s">
         <v>491</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>566</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE15" t="s">
         <v>593</v>
       </c>
-      <c r="AF15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>264</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>324</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>541</v>
-      </c>
-      <c r="R16" t="s">
+        <v>718</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>729</v>
+      </c>
+      <c r="U16" t="s">
         <v>492</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>253</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE16" t="s">
         <v>567</v>
       </c>
-      <c r="AF16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>507</v>
       </c>
       <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>316</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>325</v>
       </c>
-      <c r="L17" t="s">
-        <v>487</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>541</v>
+      </c>
+      <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s">
         <v>249</v>
       </c>
-      <c r="AA17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
         <v>385</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>681</v>
       </c>
-      <c r="L18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>487</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>730</v>
+      </c>
+      <c r="V18" t="s">
         <v>250</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE18" t="s">
         <v>75</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL18" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>660</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>731</v>
+      </c>
+      <c r="V19" t="s">
         <v>656</v>
       </c>
-      <c r="AA19" t="s">
-        <v>493</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>766</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL19" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>697</v>
       </c>
       <c r="F20" t="s">
         <v>661</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>295</v>
       </c>
-      <c r="L20" t="s">
-        <v>462</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" t="s">
+        <v>732</v>
+      </c>
+      <c r="V20" t="s">
         <v>251</v>
       </c>
-      <c r="AA20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL20" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>414</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>296</v>
       </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>462</v>
+      </c>
+      <c r="T21" t="s">
+        <v>733</v>
+      </c>
+      <c r="V21" t="s">
         <v>657</v>
       </c>
-      <c r="AA21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>767</v>
+      </c>
+      <c r="AL21" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
         <v>596</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>297</v>
       </c>
-      <c r="L22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>597</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>298</v>
       </c>
-      <c r="L23" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL23" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
         <v>598</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>289</v>
       </c>
-      <c r="L24" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>558</v>
+      </c>
+      <c r="T24" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>278</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>470</v>
+      </c>
+      <c r="T25" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL25" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>662</v>
       </c>
-      <c r="L26" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>682</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
         <v>255</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>663</v>
       </c>
-      <c r="L27" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>391</v>
+      </c>
+      <c r="T27" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
         <v>599</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>76</v>
       </c>
-      <c r="L28" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>109</v>
+      <c r="M28" t="s">
+        <v>601</v>
+      </c>
+      <c r="T28" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>586</v>
       </c>
       <c r="F29" t="s">
         <v>538</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>281</v>
       </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>110</v>
+      <c r="M29" t="s">
+        <v>524</v>
+      </c>
+      <c r="T29" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>658</v>
+        <v>577</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>265</v>
       </c>
-      <c r="L30" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>111</v>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>659</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>321</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>282</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>112</v>
+      <c r="M31" t="s">
+        <v>433</v>
+      </c>
+      <c r="T31" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>283</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>327</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>448</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>215</v>
       </c>
-      <c r="AA33" t="s">
-        <v>113</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>658</v>
       </c>
       <c r="F34" t="s">
         <v>224</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>274</v>
       </c>
-      <c r="AA34" t="s">
-        <v>114</v>
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>659</v>
+      </c>
       <c r="F35" t="s">
         <v>225</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>284</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
+      <c r="T35" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" t="s">
         <v>468</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>509</v>
       </c>
-      <c r="AA36" t="s">
-        <v>116</v>
+      <c r="T36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>413</v>
+      </c>
       <c r="F37" t="s">
         <v>469</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>259</v>
       </c>
-      <c r="AA37" t="s">
-        <v>543</v>
+      <c r="T37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>226</v>
+      </c>
       <c r="F38" t="s">
         <v>415</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>330</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
+      <c r="T38" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>306</v>
       </c>
-      <c r="AA39" t="s">
-        <v>118</v>
+      <c r="T39" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>260</v>
       </c>
-      <c r="AA40" t="s">
-        <v>208</v>
+      <c r="T40" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>66</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>307</v>
       </c>
-      <c r="AA41" t="s">
-        <v>119</v>
+      <c r="T41" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>266</v>
       </c>
-      <c r="AA42" t="s">
-        <v>338</v>
+      <c r="T42" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>664</v>
       </c>
-      <c r="AA43" t="s">
-        <v>437</v>
+      <c r="T43" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" t="s">
-        <v>556</v>
+      <c r="T44" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>210</v>
       </c>
-      <c r="AA45" t="s">
-        <v>392</v>
+      <c r="T45" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>539</v>
       </c>
-      <c r="AA46" t="s">
-        <v>120</v>
+      <c r="T46" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>600</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>288</v>
       </c>
-      <c r="AA47" t="s">
-        <v>121</v>
+      <c r="T47" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="48">
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>299</v>
       </c>
-      <c r="AA48" t="s">
-        <v>122</v>
+      <c r="T48" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49">
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>300</v>
       </c>
-      <c r="AA49" t="s">
-        <v>123</v>
+      <c r="T49" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="50">
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>343</v>
       </c>
-      <c r="AA50" t="s">
-        <v>124</v>
+      <c r="T50" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51">
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>342</v>
       </c>
-      <c r="AA51" t="s">
-        <v>125</v>
+      <c r="T51" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="52">
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>209</v>
       </c>
-      <c r="AA52" t="s">
-        <v>594</v>
+      <c r="AE52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53">
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>320</v>
       </c>
-      <c r="AA53" t="s">
-        <v>211</v>
+      <c r="AE53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>665</v>
       </c>
-      <c r="AA54" t="s">
-        <v>77</v>
+      <c r="AE54" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55">
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>666</v>
       </c>
-      <c r="AA55" t="s">
-        <v>536</v>
+      <c r="AE55" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56">
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>667</v>
       </c>
-      <c r="AA56" t="s">
-        <v>126</v>
+      <c r="AE56" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="57">
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>668</v>
       </c>
-      <c r="AA57" t="s">
-        <v>127</v>
+      <c r="AE57" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58">
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>339</v>
       </c>
-      <c r="AA58" t="s">
-        <v>128</v>
+      <c r="AE58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59">
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>367</v>
       </c>
-      <c r="AA59" t="s">
-        <v>495</v>
+      <c r="AE59" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="60">
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>301</v>
       </c>
-      <c r="AA60" t="s">
-        <v>463</v>
+      <c r="AE60" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61">
-      <c r="H61" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>129</v>
+      <c r="I61" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62">
-      <c r="H62" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>346</v>
+      <c r="I62" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63">
-      <c r="H63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>464</v>
+      <c r="I63" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="64">
-      <c r="H64" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>130</v>
+      <c r="I64" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="65">
-      <c r="H65" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>131</v>
+      <c r="I65" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="66">
-      <c r="H66" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>132</v>
+      <c r="I66" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="67">
-      <c r="H67" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>133</v>
+      <c r="I67" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="68">
-      <c r="H68" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>134</v>
+      <c r="I68" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="69">
-      <c r="H69" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>135</v>
+      <c r="I69" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="70">
-      <c r="H70" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>136</v>
+      <c r="I70" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="71">
-      <c r="H71" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>439</v>
+      <c r="I71" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72">
-      <c r="H72" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>473</v>
+      <c r="I72" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="73">
-      <c r="H73" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>212</v>
+      <c r="I73" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74">
-      <c r="H74" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>388</v>
+      <c r="I74" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75">
-      <c r="H75" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>440</v>
+      <c r="I75" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76">
-      <c r="H76" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>137</v>
+      <c r="I76" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="77">
-      <c r="H77" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>138</v>
+      <c r="I77" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="78">
-      <c r="H78" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>139</v>
+      <c r="I78" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="79">
-      <c r="H79" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>140</v>
+      <c r="I79" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="80">
-      <c r="H80" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>638</v>
+      <c r="I80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="81">
-      <c r="H81" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>195</v>
+      <c r="I81" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="82">
-      <c r="H82" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>196</v>
+      <c r="I82" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="83">
-      <c r="H83" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>452</v>
+      <c r="I83" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="84">
-      <c r="H84" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>465</v>
+      <c r="I84" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85">
-      <c r="H85" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>683</v>
+      <c r="I85" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="86">
-      <c r="H86" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>141</v>
+      <c r="I86" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="87">
-      <c r="H87" t="s">
-        <v>510</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>142</v>
+      <c r="I87" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="88">
-      <c r="H88" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>143</v>
+      <c r="I88" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="89">
-      <c r="H89" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>496</v>
+      <c r="I89" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="90">
-      <c r="H90" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>144</v>
+      <c r="I90" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="91">
-      <c r="H91" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>145</v>
+      <c r="I91" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="92">
-      <c r="H92" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>197</v>
+      <c r="I92" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="93">
-      <c r="H93" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>497</v>
+      <c r="I93" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94">
-      <c r="H94" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>564</v>
+      <c r="I94" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="95">
-      <c r="H95" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>198</v>
+      <c r="I95" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="96">
-      <c r="H96" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>453</v>
+      <c r="I96" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="97">
-      <c r="H97" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>199</v>
+      <c r="I97" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="98">
-      <c r="H98" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>200</v>
+      <c r="I98" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="99">
-      <c r="H99" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>547</v>
+      <c r="I99" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="100">
-      <c r="H100" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>548</v>
+      <c r="I100" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="101">
-      <c r="H101" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>213</v>
+      <c r="I101" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="102">
-      <c r="H102" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>146</v>
+      <c r="I102" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="103">
-      <c r="H103" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>201</v>
+      <c r="I103" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="104">
-      <c r="H104" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>441</v>
+      <c r="I104" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="H105" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>562</v>
+      <c r="I105" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="106">
-      <c r="H106" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>563</v>
+      <c r="I106" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="107">
-      <c r="H107" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>442</v>
+      <c r="I107" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="108">
-      <c r="H108" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>202</v>
+      <c r="I108" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="109">
-      <c r="H109" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>203</v>
+      <c r="I109" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="110">
-      <c r="H110" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>204</v>
+      <c r="I110" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="111">
-      <c r="H111" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>205</v>
+      <c r="I111" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="112">
-      <c r="AA112" t="s">
-        <v>222</v>
+      <c r="I112" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="113">
-      <c r="AA113" t="s">
-        <v>568</v>
+      <c r="I113" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="114">
-      <c r="AA114" t="s">
-        <v>206</v>
+      <c r="AE114" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="115">
-      <c r="AA115" t="s">
-        <v>498</v>
+      <c r="AE115" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="116">
-      <c r="AA116" t="s">
-        <v>639</v>
+      <c r="AE116" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="117">
-      <c r="AA117" t="s">
-        <v>640</v>
+      <c r="AE117" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="118">
-      <c r="AA118" t="s">
-        <v>522</v>
+      <c r="AE118" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="119">
-      <c r="AA119" t="s">
-        <v>147</v>
+      <c r="AE119" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="120">
-      <c r="AA120" t="s">
-        <v>523</v>
+      <c r="AE120" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="121">
-      <c r="AA121" t="s">
-        <v>382</v>
+      <c r="AE121" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="122">
-      <c r="AA122" t="s">
-        <v>148</v>
+      <c r="AE122" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="123">
-      <c r="AA123" t="s">
-        <v>149</v>
+      <c r="AE123" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="124">
-      <c r="AA124" t="s">
-        <v>569</v>
+      <c r="AE124" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="125">
-      <c r="AA125" t="s">
-        <v>150</v>
+      <c r="AE125" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="126">
-      <c r="AA126" t="s">
-        <v>151</v>
+      <c r="AE126" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="127">
-      <c r="AA127" t="s">
-        <v>570</v>
+      <c r="AE127" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="128">
-      <c r="AA128" t="s">
-        <v>152</v>
+      <c r="AE128" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="129">
-      <c r="AA129" t="s">
-        <v>153</v>
+      <c r="AE129" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="130">
-      <c r="AA130" t="s">
-        <v>154</v>
+      <c r="AE130" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="131">
-      <c r="AA131" t="s">
-        <v>155</v>
+      <c r="AE131" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="132">
-      <c r="AA132" t="s">
-        <v>156</v>
+      <c r="AE132" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="133">
-      <c r="AA133" t="s">
-        <v>157</v>
+      <c r="AE133" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="134">
-      <c r="AA134" t="s">
-        <v>571</v>
+      <c r="AE134" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="135">
-      <c r="AA135" t="s">
-        <v>158</v>
+      <c r="AE135" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="136">
-      <c r="AA136" t="s">
-        <v>159</v>
+      <c r="AE136" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137">
-      <c r="AA137" t="s">
-        <v>160</v>
+      <c r="AE137" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="138">
-      <c r="AA138" t="s">
-        <v>595</v>
+      <c r="AE138" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="139">
-      <c r="AA139" t="s">
-        <v>161</v>
+      <c r="AE139" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="140">
-      <c r="AA140" t="s">
-        <v>544</v>
+      <c r="AE140" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="141">
-      <c r="AA141" t="s">
-        <v>162</v>
+      <c r="AE141" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="142">
-      <c r="AA142" t="s">
-        <v>163</v>
+      <c r="AE142" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="143">
-      <c r="AA143" t="s">
-        <v>164</v>
+      <c r="AE143" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="144">
-      <c r="AA144" t="s">
-        <v>46</v>
+      <c r="AE144" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="145">
-      <c r="AA145" t="s">
-        <v>641</v>
+      <c r="AE145" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="146">
-      <c r="AA146" t="s">
-        <v>572</v>
+      <c r="AE146" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="147">
-      <c r="AA147" t="s">
-        <v>166</v>
+      <c r="AE147" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="148">
-      <c r="AA148" t="s">
-        <v>167</v>
+      <c r="AE148" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="149">
-      <c r="AA149" t="s">
-        <v>168</v>
+      <c r="AE149" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="150">
-      <c r="AA150" t="s">
-        <v>642</v>
+      <c r="AE150" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="151">
-      <c r="AA151" t="s">
-        <v>643</v>
+      <c r="AE151" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="152">
-      <c r="AA152" t="s">
-        <v>644</v>
+      <c r="AE152" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="153">
-      <c r="AA153" t="s">
+      <c r="AE153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="AE154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="AE155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="AE156" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="AE157" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="AE158" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="AE159" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
